--- a/database/world_suicide.xlsx
+++ b/database/world_suicide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Work\TETRIS\capstone_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBE498-A118-4400-8FAA-8CD7C2148981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958D909-DBDC-4AB1-AEBE-2B771B4B1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3458343-7256-459C-B4DD-D1ED429EEA59}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>indonesia</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>lowermiddle</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,19 +489,19 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/database/world_suicide.xlsx
+++ b/database/world_suicide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Work\TETRIS\capstone_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958D909-DBDC-4AB1-AEBE-2B771B4B1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737D352-9D51-4096-95A3-7DA5F90A1537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3458343-7256-459C-B4DD-D1ED429EEA59}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>2000</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>lowermiddle</t>
-  </si>
-  <si>
-    <t>middle</t>
   </si>
   <si>
     <t>uppermiddle</t>
@@ -470,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269F969A-FA92-473D-9994-B73E3EAD667D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -489,7 +486,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -500,11 +497,8 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -521,16 +515,13 @@
         <v>11.65731101699197</v>
       </c>
       <c r="F2">
-        <v>13.17985412186087</v>
+        <v>14.902733708718195</v>
       </c>
       <c r="G2">
-        <v>14.902733708718195</v>
-      </c>
-      <c r="H2">
         <v>13.977523644976941</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -547,16 +538,13 @@
         <v>11.305675155884066</v>
       </c>
       <c r="F3">
-        <v>12.547409820365653</v>
+        <v>13.965188371852976</v>
       </c>
       <c r="G3">
-        <v>13.965188371852976</v>
-      </c>
-      <c r="H3">
         <v>13.882072029819174</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -573,16 +561,13 @@
         <v>10.995005974117367</v>
       </c>
       <c r="F4">
-        <v>12.160995841705239</v>
+        <v>13.50453357988982</v>
       </c>
       <c r="G4">
-        <v>13.50453357988982</v>
-      </c>
-      <c r="H4">
         <v>14.235227227068561</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -599,16 +584,13 @@
         <v>10.553595960114666</v>
       </c>
       <c r="F5">
-        <v>12.036548780028228</v>
+        <v>13.761121666275075</v>
       </c>
       <c r="G5">
-        <v>13.761121666275075</v>
-      </c>
-      <c r="H5">
         <v>14.538153369595785</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -625,16 +607,13 @@
         <v>10.459773662644055</v>
       </c>
       <c r="F6">
-        <v>12.036324083589339</v>
+        <v>13.886626764835848</v>
       </c>
       <c r="G6">
-        <v>13.886626764835848</v>
-      </c>
-      <c r="H6">
         <v>14.3093337200668</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -651,16 +630,13 @@
         <v>10.594044889068096</v>
       </c>
       <c r="F7">
-        <v>11.954025169511889</v>
+        <v>13.564609925430176</v>
       </c>
       <c r="G7">
-        <v>13.564609925430176</v>
-      </c>
-      <c r="H7">
         <v>14.247904463168286</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -677,16 +653,13 @@
         <v>10.497060370172122</v>
       </c>
       <c r="F8">
-        <v>11.497216644658778</v>
+        <v>12.692393291013435</v>
       </c>
       <c r="G8">
-        <v>12.692393291013435</v>
-      </c>
-      <c r="H8">
         <v>13.88805890453099</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -703,16 +676,13 @@
         <v>10.396515495973887</v>
       </c>
       <c r="F9">
-        <v>11.161143283754592</v>
+        <v>12.083117558784158</v>
       </c>
       <c r="G9">
-        <v>12.083117558784158</v>
-      </c>
-      <c r="H9">
         <v>14.010565666044347</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -729,16 +699,13 @@
         <v>10.256709209628289</v>
       </c>
       <c r="F10">
-        <v>10.95975115287159</v>
+        <v>11.814895178506083</v>
       </c>
       <c r="G10">
-        <v>11.814895178506083</v>
-      </c>
-      <c r="H10">
         <v>14.296075318238378</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -755,16 +722,13 @@
         <v>9.9229795952331692</v>
       </c>
       <c r="F11">
-        <v>10.588062274229255</v>
+        <v>11.40400416699929</v>
       </c>
       <c r="G11">
-        <v>11.40400416699929</v>
-      </c>
-      <c r="H11">
         <v>14.752007032162584</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -781,16 +745,13 @@
         <v>9.8922830294917627</v>
       </c>
       <c r="F12">
-        <v>10.388160938474462</v>
+        <v>11.001804521800743</v>
       </c>
       <c r="G12">
-        <v>11.001804521800743</v>
-      </c>
-      <c r="H12">
         <v>14.641292034899955</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -807,16 +768,13 @@
         <v>9.8651000819569514</v>
       </c>
       <c r="F13">
-        <v>10.134696686234276</v>
+        <v>10.470985911264934</v>
       </c>
       <c r="G13">
-        <v>10.470985911264934</v>
-      </c>
-      <c r="H13">
         <v>14.634505255603388</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -833,16 +791,13 @@
         <v>9.6284130209139374</v>
       </c>
       <c r="F14">
-        <v>9.7978229360224542</v>
+        <v>10.010579815669564</v>
       </c>
       <c r="G14">
-        <v>10.010579815669564</v>
-      </c>
-      <c r="H14">
         <v>14.324306747986604</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -859,16 +814,13 @@
         <v>9.3118833642525729</v>
       </c>
       <c r="F15">
-        <v>9.4873434694314369</v>
+        <v>9.7091770964204311</v>
       </c>
       <c r="G15">
-        <v>9.7091770964204311</v>
-      </c>
-      <c r="H15">
         <v>14.274362269304039</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -885,16 +837,13 @@
         <v>8.8670108353449297</v>
       </c>
       <c r="F16">
-        <v>9.2024836214188159</v>
+        <v>9.6294730982727277</v>
       </c>
       <c r="G16">
-        <v>9.6294730982727277</v>
-      </c>
-      <c r="H16">
         <v>14.043158852327361</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -911,16 +860,13 @@
         <v>8.5842770742948193</v>
       </c>
       <c r="F17">
-        <v>8.9166415479615893</v>
+        <v>9.3426076268999303</v>
       </c>
       <c r="G17">
-        <v>9.3426076268999303</v>
-      </c>
-      <c r="H17">
         <v>13.880138606623598</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -937,16 +883,13 @@
         <v>8.442867561704654</v>
       </c>
       <c r="F18">
-        <v>8.8301191040775837</v>
+        <v>9.3298375388658972</v>
       </c>
       <c r="G18">
-        <v>9.3298375388658972</v>
-      </c>
-      <c r="H18">
         <v>13.550723658328586</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -963,16 +906,13 @@
         <v>8.3319165276252516</v>
       </c>
       <c r="F19">
-        <v>8.6865524571096948</v>
+        <v>9.1472003495763161</v>
       </c>
       <c r="G19">
-        <v>9.1472003495763161</v>
-      </c>
-      <c r="H19">
         <v>13.65366856072739</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -989,16 +929,13 @@
         <v>8.5508171031116618</v>
       </c>
       <c r="F20">
-        <v>8.7717768759592882</v>
+        <v>9.0609043580229205</v>
       </c>
       <c r="G20">
-        <v>9.0609043580229205</v>
-      </c>
-      <c r="H20">
         <v>13.534134460991108</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1015,12 +952,9 @@
         <v>8.5579415233133833</v>
       </c>
       <c r="F21">
-        <v>8.6941059881741136</v>
+        <v>8.8737028813641601</v>
       </c>
       <c r="G21">
-        <v>8.8737028813641601</v>
-      </c>
-      <c r="H21">
         <v>13.327213885831355</v>
       </c>
     </row>
